--- a/medicine/Enfance/Nadia_Coste/Nadia_Coste.xlsx
+++ b/medicine/Enfance/Nadia_Coste/Nadia_Coste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nadia Coste ou N. B. Coste, née en 1979 à Villeurbanne, est une écrivaine française pour la jeunesse.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Passionnée par les littératures de l'imaginaire, Nadia Coste se lance dans l'écriture dès 2004. Près de six années et neuf versions plus tard, elle publie le premier volume de la série Les Fedeylins aux éditions Gründ[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Passionnée par les littératures de l'imaginaire, Nadia Coste se lance dans l'écriture dès 2004. Près de six années et neuf versions plus tard, elle publie le premier volume de la série Les Fedeylins aux éditions Gründ.
 Après la parution complète des trois tomes de la saga, elle se consacre à d’autres univers de la littérature jeunesse, dont la trilogie Les Yeux de l’aigle publiée entre 2012 et 2013 chez Gründ, la série SpaceLeague aux éditions L'Équipe et Ascenseur pour le futur aux éditions Syros.
-En 2015, elle s'oriente vers la littérature pour adolescent avec le roman Le Premier aux éditions Scrineo, suivi de L'Empire des Auras aux éditions du Seuil en 2016 et de Les élémentaires chez Castelmore en 2017[2],[3].
+En 2015, elle s'oriente vers la littérature pour adolescent avec le roman Le Premier aux éditions Scrineo, suivi de L'Empire des Auras aux éditions du Seuil en 2016 et de Les élémentaires chez Castelmore en 2017,.
 Longtemps membre actif de CoCyclics, un collectif de jeunes auteurs qui s’entraident pour améliorer leurs manuscrits grâce à la relecture critique, elle est membre de la Charte des Auteurs et Illustrateurs Jeunesse. Elle a également écrit "la cité du savoir".
 </t>
         </is>
@@ -547,24 +561,131 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série SpeaceLeague
-Premier Match, L'Équipe, 2013
+          <t>Série SpeaceLeague</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Premier Match, L'Équipe, 2013
 L'Esprit d'équipe, L'Équipe, 2013
 Rébellion, L'Équipe, 2014
 Cours d'entraînement, L'Équipe, 2014
 Mise à l'épreuve, L'Équipe, 2014
-Sélections, L'Équipe, 2014
-Série Les Fedeylins
-Les Rives du monde, Gründ, 2011, 391 p.  (ISBN 2-7000-2924-0)
+Sélections, L'Équipe, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nadia_Coste</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nadia_Coste</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Les Fedeylins</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Rives du monde, Gründ, 2011, 391 p.  (ISBN 2-7000-2924-0)
 Aux bords du mal, Gründ, 2011  (ISBN 2-7000-3183-0)
 Sous la surface, Gründ, 2012  (ISBN 2-3240- 0011-3)
-L'Ombre des pères, Gründ, 2012  (ISBN 2-3240-0012-1)
-Série Les Yeux de l'aigle
-Les Aiglons, Gründ, 2012
+L'Ombre des pères, Gründ, 2012  (ISBN 2-3240-0012-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nadia_Coste</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nadia_Coste</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Les Yeux de l'aigle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Aiglons, Gründ, 2012
 La Reine des nuages, Gründ, 2012
-Le Dernier Prisonnier, Gründ, 2013
-Romans indépendants
-La Campagne aux trousses, Imaginemos, 2014, 152 p.  (ISBN 1-0912-3320-9)
+Le Dernier Prisonnier, Gründ, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nadia_Coste</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nadia_Coste</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Campagne aux trousses, Imaginemos, 2014, 152 p.  (ISBN 1-0912-3320-9)
 Ascenseur pour le futur, Syros, coll. « Soon », 2014, 139 p.  (ISBN 978-2-7485-1502-2)
 Le Premier, Scrineo, 2015, 311 p.  (ISBN 978-2-36740-283-3)
 L'Empire des Auras, Seuil, coll. « Jeunesse », 2016, 304 p.  (ISBN 979-1023506952)
@@ -579,34 +700,36 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Nadia_Coste</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Nadia_Coste</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Sélection Grand Prix de l'imaginaire 2016, catégorie Romans jeunesse francophones, pour Le Premier[réf. souhaitée]
-Prix Gayant lecture[4] 2020 pour Comment je suis devenue un robot </t>
+Prix Gayant lecture 2020 pour Comment je suis devenue un robot </t>
         </is>
       </c>
     </row>
